--- a/data-raw/blood.xlsx
+++ b/data-raw/blood.xlsx
@@ -110,16 +110,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -650,7 +647,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -695,25 +692,25 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
         <v>44</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>15</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>886.38386926212604</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>2600.0593498355697</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>3309.1664452452701</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>5909.2257950808398</v>
       </c>
     </row>
@@ -724,25 +721,25 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
         <v>44</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>15</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>925.75845192902921</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>2715.558125658486</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>3456.164887201709</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>6171.723012860195</v>
       </c>
     </row>
@@ -753,25 +750,25 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
         <v>46</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>15.199999999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>861.48332268396734</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>2607.1205818067438</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>3060.5328569035682</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>5667.653438710312</v>
       </c>
     </row>
@@ -782,25 +779,25 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -814,22 +811,22 @@
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>43.600000000000001</v>
       </c>
       <c r="E6" s="4">
         <v>14.5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>880.47179522311285</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>2647.4876049467393</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>3424.7316724540387</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>6072.2192774007781</v>
       </c>
     </row>
@@ -843,22 +840,22 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>43.600000000000001</v>
       </c>
       <c r="E7" s="4">
         <v>14.5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>916.08568054424302</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>2754.5748739123446</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>3563.2574057031243</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>6317.8322796154689</v>
       </c>
     </row>
@@ -872,22 +869,22 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>43.200000000000003</v>
       </c>
       <c r="E8" s="4">
         <v>14.4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>886.89666159749572</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>2660.6899847924874</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>3498.3146096345658</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>6159.0045944270532</v>
       </c>
     </row>
@@ -901,22 +898,22 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43.200000000000003</v>
       </c>
       <c r="E9" s="4">
         <v>14.4</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>915.92158257832784</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2747.7647477349838</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>3612.8017979478482</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>6360.5665456828319</v>
       </c>
     </row>
@@ -930,22 +927,22 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>44.5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>15.199999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>790.29528801114418</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2313.6934418747314</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>2885.6176634617432</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>5199.3111053364746</v>
       </c>
     </row>
@@ -959,22 +956,22 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>44.5</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>15.199999999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>791.78714602771709</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>2318.0610525153566</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>2891.0649081933093</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>5209.1259607086658</v>
       </c>
     </row>
@@ -988,22 +985,22 @@
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>42.600000000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>14.4</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>745.32565343601573</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>2204.9217247482134</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>2970.9508685574515</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>5175.8725933056649</v>
       </c>
     </row>
@@ -1017,12 +1014,12 @@
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -1034,22 +1031,22 @@
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>41.200000000000003</v>
       </c>
       <c r="E14" s="4">
         <v>14.199999999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>770.29506161406914</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>2234.9406013027924</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>3189.6725086554411</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>5424.6131099582335</v>
       </c>
     </row>
@@ -1063,12 +1060,12 @@
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -1080,22 +1077,22 @@
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>41.5</v>
       </c>
       <c r="E16" s="4">
         <v>14.300000000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>771.81909712822346</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>2239.8945825749142</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>3157.4417609790962</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>5397.3363435540105</v>
       </c>
     </row>
@@ -1109,12 +1106,12 @@
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -1126,22 +1123,22 @@
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>41.600000000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>14.4</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>867.0387046362448</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>2504.7784800602631</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>3516.3236354692144</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>6021.1021155294775</v>
       </c>
     </row>
@@ -1155,12 +1152,12 @@
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
@@ -1172,22 +1169,22 @@
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>42.299999999999997</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>15.1</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>847.6638954571207</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>2374.5816409163049</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>3239.0865409189314</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>5613.6681818352363</v>
       </c>
     </row>
@@ -1201,22 +1198,22 @@
       <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>42.299999999999997</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>15.1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>835.96631021692883</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>2341.8129087533835</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>3194.3878211600531</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>5536.2007299134366</v>
       </c>
     </row>
@@ -1230,22 +1227,22 @@
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>41.700000000000003</v>
       </c>
       <c r="E22" s="4">
         <v>14.5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>784.59281122607467</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>2256.380705388091</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>3154.6041996193208</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>5410.9849050074117</v>
       </c>
     </row>
@@ -1259,22 +1256,22 @@
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>41.700000000000003</v>
       </c>
       <c r="E23" s="4">
         <v>14.5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>840.06900494554804</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>2415.9225866365077</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>3377.6567578155482</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>5793.5793444520559</v>
       </c>
     </row>
@@ -1288,22 +1285,22 @@
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>42.700000000000003</v>
       </c>
       <c r="E24" s="4">
         <v>14.9</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>787.64146177905536</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>2257.2006991923267</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>3028.9836080496557</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>5286.1843072419824</v>
       </c>
     </row>
@@ -1317,28 +1314,28 @@
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>42.700000000000003</v>
       </c>
       <c r="E25" s="4">
         <v>14.9</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>798.70888252966631</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>2288.9174016118627</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>3071.5448972449581</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>5360.4622988568208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -1346,28 +1343,28 @@
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6">
-        <v>43</v>
-      </c>
-      <c r="E26" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="F26" s="7">
-        <v>914.59362480288189</v>
-      </c>
-      <c r="G26" s="7">
-        <v>2604.4719116903257</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3452.4395108453159</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6056.9114225356416</v>
+      <c r="D26" s="5">
+        <v>45.600000000000001</v>
+      </c>
+      <c r="E26" s="5">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6">
+        <v>863.36698303034234</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2621.653389948387</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3122.1806623197895</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5743.8340522681765</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -1375,28 +1372,28 @@
       <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="6">
-        <v>43</v>
-      </c>
-      <c r="E27" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>918.3919948582361</v>
-      </c>
-      <c r="G27" s="7">
-        <v>2615.2884621790827</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3466.7777289350634</v>
-      </c>
-      <c r="I27" s="7">
-        <v>6082.066191114146</v>
+      <c r="D27" s="5">
+        <v>45.600000000000001</v>
+      </c>
+      <c r="E27" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>889.70517003982138</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2701.6305012066114</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3217.4270404855706</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5919.057541692182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="4">
         <v>2</v>
@@ -1404,28 +1401,28 @@
       <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="6">
-        <v>41.799999999999997</v>
-      </c>
-      <c r="E28" s="6">
-        <v>15.199999999999999</v>
-      </c>
-      <c r="F28" s="7">
-        <v>899.31804566471908</v>
-      </c>
-      <c r="G28" s="7">
-        <v>2473.1246255779779</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3443.4414643214905</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5916.5660898994684</v>
+      <c r="D28" s="5">
+        <v>42.600000000000001</v>
+      </c>
+      <c r="E28" s="4">
+        <v>14.699999999999999</v>
+      </c>
+      <c r="F28" s="6">
+        <v>837.75642379377507</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2427.7839220146134</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3271.2393690995032</v>
+      </c>
+      <c r="I28" s="6">
+        <v>5699.0232911141165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
@@ -1433,23 +1430,23 @@
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="6">
-        <v>41.799999999999997</v>
-      </c>
-      <c r="E29" s="6">
-        <v>15.199999999999999</v>
-      </c>
-      <c r="F29" s="7">
-        <v>915.66172786335926</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2518.0697516242381</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3506.0205632662837</v>
-      </c>
-      <c r="I29" s="7">
-        <v>6024.0903148905218</v>
+      <c r="D29" s="5">
+        <v>42.600000000000001</v>
+      </c>
+      <c r="E29" s="4">
+        <v>14.699999999999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>836.58505688415141</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2424.3893485214185</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3266.6654602143053</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5691.0548087357238</v>
       </c>
     </row>
     <row r="30">
@@ -1457,28 +1454,28 @@
         <v>7</v>
       </c>
       <c r="B30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6">
-        <v>45.399999999999999</v>
-      </c>
-      <c r="E30" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F30" s="7">
-        <v>861.81375052025987</v>
-      </c>
-      <c r="G30" s="7">
-        <v>2508.0989918987048</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3016.3481268209102</v>
-      </c>
-      <c r="I30" s="7">
-        <v>5524.447118719615</v>
+      <c r="D30" s="5">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>914.59362480288189</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2604.4719116903257</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3452.4395108453159</v>
+      </c>
+      <c r="I30" s="6">
+        <v>6056.9114225356416</v>
       </c>
     </row>
     <row r="31">
@@ -1486,28 +1483,28 @@
         <v>7</v>
       </c>
       <c r="B31" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
-        <v>45.399999999999999</v>
-      </c>
-      <c r="E31" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F31" s="7">
-        <v>857.43899812505617</v>
-      </c>
-      <c r="G31" s="7">
-        <v>2495.3673406972789</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3001.0364934376971</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5496.403834134976</v>
+      <c r="D31" s="5">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>918.3919948582361</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2615.2884621790827</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3466.7777289350634</v>
+      </c>
+      <c r="I31" s="6">
+        <v>6082.066191114146</v>
       </c>
     </row>
     <row r="32">
@@ -1515,28 +1512,28 @@
         <v>7</v>
       </c>
       <c r="B32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6">
-        <v>43.700000000000003</v>
-      </c>
-      <c r="E32" s="4">
-        <v>15.300000000000001</v>
-      </c>
-      <c r="F32" s="7">
-        <v>861.77901830213148</v>
-      </c>
-      <c r="G32" s="7">
-        <v>2461.4211176341923</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3171.1214856477118</v>
-      </c>
-      <c r="I32" s="7">
-        <v>5632.5426032819041</v>
+      <c r="D32" s="5">
+        <v>41.799999999999997</v>
+      </c>
+      <c r="E32" s="5">
+        <v>15.199999999999999</v>
+      </c>
+      <c r="F32" s="6">
+        <v>899.31804566471908</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2473.1246255779779</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3443.4414643214905</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5916.5660898994684</v>
       </c>
     </row>
     <row r="33">
@@ -1544,144 +1541,144 @@
         <v>7</v>
       </c>
       <c r="B33" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6">
-        <v>43.700000000000003</v>
-      </c>
-      <c r="E33" s="4">
-        <v>15.300000000000001</v>
-      </c>
-      <c r="F33" s="7">
-        <v>873.92940506588434</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2496.1251634888331</v>
-      </c>
-      <c r="H33" s="7">
-        <v>3215.8317323666197</v>
-      </c>
-      <c r="I33" s="7">
-        <v>5711.9568958554528</v>
+      <c r="D33" s="5">
+        <v>41.799999999999997</v>
+      </c>
+      <c r="E33" s="5">
+        <v>15.199999999999999</v>
+      </c>
+      <c r="F33" s="6">
+        <v>915.66172786335926</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2518.0697516242381</v>
+      </c>
+      <c r="H33" s="6">
+        <v>3506.0205632662837</v>
+      </c>
+      <c r="I33" s="6">
+        <v>6024.0903148905218</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="6">
-        <v>42.399999999999999</v>
-      </c>
-      <c r="E34" s="6">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7">
-        <v>887.06543406256264</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2686.5410288751896</v>
-      </c>
-      <c r="H34" s="7">
-        <v>3649.6406430002576</v>
-      </c>
-      <c r="I34" s="7">
-        <v>6336.1816718754471</v>
+      <c r="D34" s="5">
+        <v>45.399999999999999</v>
+      </c>
+      <c r="E34" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="F34" s="6">
+        <v>861.81375052025987</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2508.0989918987048</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3016.3481268209102</v>
+      </c>
+      <c r="I34" s="6">
+        <v>5524.447118719615</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="6">
-        <v>42.399999999999999</v>
-      </c>
-      <c r="E35" s="6">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7">
-        <v>875.05504395309595</v>
-      </c>
-      <c r="G35" s="7">
-        <v>2650.1667045436616</v>
-      </c>
-      <c r="H35" s="7">
-        <v>3600.2264665498806</v>
-      </c>
-      <c r="I35" s="7">
-        <v>6250.3931710935422</v>
+      <c r="D35" s="5">
+        <v>45.399999999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>857.43899812505617</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2495.3673406972789</v>
+      </c>
+      <c r="H35" s="6">
+        <v>3001.0364934376971</v>
+      </c>
+      <c r="I35" s="6">
+        <v>5496.403834134976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="6">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E36" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="F36" s="7">
-        <v>878.83191865888955</v>
-      </c>
-      <c r="G36" s="7">
-        <v>2670.0389589789161</v>
-      </c>
-      <c r="H36" s="7">
-        <v>4038.6016414706223</v>
-      </c>
-      <c r="I36" s="7">
-        <v>6708.6406004495384</v>
+      <c r="D36" s="5">
+        <v>43.700000000000003</v>
+      </c>
+      <c r="E36" s="4">
+        <v>15.300000000000001</v>
+      </c>
+      <c r="F36" s="6">
+        <v>861.77901830213148</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2461.4211176341923</v>
+      </c>
+      <c r="H36" s="6">
+        <v>3171.1214856477118</v>
+      </c>
+      <c r="I36" s="6">
+        <v>5632.5426032819041</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="6">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E37" s="6">
-        <v>13.1</v>
-      </c>
-      <c r="F37" s="7">
-        <v>861.41308991530207</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2617.1176319564138</v>
-      </c>
-      <c r="H37" s="7">
-        <v>3958.5548101451286</v>
-      </c>
-      <c r="I37" s="7">
-        <v>6575.6724421015424</v>
+      <c r="D37" s="5">
+        <v>43.700000000000003</v>
+      </c>
+      <c r="E37" s="4">
+        <v>15.300000000000001</v>
+      </c>
+      <c r="F37" s="6">
+        <v>873.92940506588434</v>
+      </c>
+      <c r="G37" s="6">
+        <v>2496.1251634888331</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3215.8317323666197</v>
+      </c>
+      <c r="I37" s="6">
+        <v>5711.9568958554528</v>
       </c>
     </row>
     <row r="38">
@@ -1689,28 +1686,28 @@
         <v>8</v>
       </c>
       <c r="B38" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="6">
-        <v>41.600000000000001</v>
-      </c>
-      <c r="E38" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="F38" s="7">
-        <v>877.93106738218239</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2685.4362061102056</v>
-      </c>
-      <c r="H38" s="7">
-        <v>3769.9392893470185</v>
-      </c>
-      <c r="I38" s="7">
-        <v>6455.3754954572241</v>
+      <c r="D38" s="5">
+        <v>42.399999999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>14</v>
+      </c>
+      <c r="F38" s="6">
+        <v>887.06543406256264</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2686.5410288751896</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3649.6406430002576</v>
+      </c>
+      <c r="I38" s="6">
+        <v>6336.1816718754471</v>
       </c>
     </row>
     <row r="39">
@@ -1718,45 +1715,57 @@
         <v>8</v>
       </c>
       <c r="B39" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="D39" s="5">
+        <v>42.399999999999999</v>
+      </c>
+      <c r="E39" s="5">
+        <v>14</v>
+      </c>
+      <c r="F39" s="6">
+        <v>875.05504395309595</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2650.1667045436616</v>
+      </c>
+      <c r="H39" s="6">
+        <v>3600.2264665498806</v>
+      </c>
+      <c r="I39" s="6">
+        <v>6250.3931710935422</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4">
         <v>8</v>
       </c>
       <c r="B40" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="6">
-        <v>42</v>
-      </c>
-      <c r="E40" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="F40" s="7">
-        <v>879.03987030348458</v>
-      </c>
-      <c r="G40" s="7">
-        <v>2734.7907076108413</v>
-      </c>
-      <c r="H40" s="7">
-        <v>3776.6157390816379</v>
-      </c>
-      <c r="I40" s="7">
-        <v>6511.4064466924792</v>
+      <c r="D40" s="5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E40" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>878.83191865888955</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2670.0389589789161</v>
+      </c>
+      <c r="H40" s="6">
+        <v>4038.6016414706223</v>
+      </c>
+      <c r="I40" s="6">
+        <v>6708.6406004495384</v>
       </c>
     </row>
     <row r="41">
@@ -1764,144 +1773,132 @@
         <v>8</v>
       </c>
       <c r="B41" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="6">
-        <v>42</v>
-      </c>
-      <c r="E41" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="F41" s="7">
-        <v>870.18485238431595</v>
-      </c>
-      <c r="G41" s="7">
-        <v>2707.2417629734273</v>
-      </c>
-      <c r="H41" s="7">
-        <v>3738.5719583918763</v>
-      </c>
-      <c r="I41" s="7">
-        <v>6445.8137213653035</v>
+      <c r="D41" s="5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E41" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>861.41308991530207</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2617.1176319564138</v>
+      </c>
+      <c r="H41" s="6">
+        <v>3958.5548101451286</v>
+      </c>
+      <c r="I41" s="6">
+        <v>6575.6724421015424</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="6">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="E42" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="F42" s="7">
-        <v>642.7774464028272</v>
-      </c>
-      <c r="G42" s="7">
-        <v>1882.0893574528825</v>
-      </c>
-      <c r="H42" s="7">
-        <v>2742.2088181070249</v>
-      </c>
-      <c r="I42" s="7">
-        <v>4624.2981755599076</v>
+      <c r="D42" s="5">
+        <v>41.600000000000001</v>
+      </c>
+      <c r="E42" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="F42" s="6">
+        <v>877.93106738218239</v>
+      </c>
+      <c r="G42" s="6">
+        <v>2685.4362061102056</v>
+      </c>
+      <c r="H42" s="6">
+        <v>3769.9392893470185</v>
+      </c>
+      <c r="I42" s="6">
+        <v>6455.3754954572241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="6">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="E43" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="F43" s="7">
-        <v>634.28515583258286</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1857.2234418982821</v>
-      </c>
-      <c r="H43" s="7">
-        <v>2705.9791180483567</v>
-      </c>
-      <c r="I43" s="7">
-        <v>4563.2025599466388</v>
-      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E44" s="6">
-        <v>12.199999999999999</v>
-      </c>
-      <c r="F44" s="7">
-        <v>628.36348909936328</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1869.6389060907284</v>
-      </c>
-      <c r="H44" s="7">
-        <v>3280.8814963630684</v>
-      </c>
-      <c r="I44" s="7">
-        <v>5150.520402453797</v>
+      <c r="D44" s="5">
+        <v>42</v>
+      </c>
+      <c r="E44" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="F44" s="6">
+        <v>879.03987030348458</v>
+      </c>
+      <c r="G44" s="6">
+        <v>2734.7907076108413</v>
+      </c>
+      <c r="H44" s="6">
+        <v>3776.6157390816379</v>
+      </c>
+      <c r="I44" s="6">
+        <v>6511.4064466924792</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E45" s="6">
-        <v>12.199999999999999</v>
-      </c>
-      <c r="F45" s="7">
-        <v>632.79428389885004</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1882.8223365187093</v>
-      </c>
-      <c r="H45" s="7">
-        <v>3304.0160560948152</v>
-      </c>
-      <c r="I45" s="7">
-        <v>5186.8383926135248</v>
+      <c r="D45" s="5">
+        <v>42</v>
+      </c>
+      <c r="E45" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="F45" s="6">
+        <v>870.18485238431595</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2707.2417629734273</v>
+      </c>
+      <c r="H45" s="6">
+        <v>3738.5719583918763</v>
+      </c>
+      <c r="I45" s="6">
+        <v>6445.8137213653035</v>
       </c>
     </row>
     <row r="46">
@@ -1909,28 +1906,28 @@
         <v>9</v>
       </c>
       <c r="B46" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="6">
-        <v>37.100000000000001</v>
-      </c>
-      <c r="E46" s="4">
-        <v>12.800000000000001</v>
-      </c>
-      <c r="F46" s="7">
-        <v>638.383708950141</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1850.3152814101743</v>
-      </c>
-      <c r="H46" s="7">
-        <v>3137.0574447628023</v>
-      </c>
-      <c r="I46" s="7">
-        <v>4987.3727261729764</v>
+      <c r="D46" s="5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E46" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="F46" s="6">
+        <v>642.7774464028272</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1882.0893574528825</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2742.2088181070249</v>
+      </c>
+      <c r="I46" s="6">
+        <v>4624.2981755599076</v>
       </c>
     </row>
     <row r="47">
@@ -1938,28 +1935,28 @@
         <v>9</v>
       </c>
       <c r="B47" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="6">
-        <v>37.100000000000001</v>
-      </c>
-      <c r="E47" s="4">
-        <v>12.800000000000001</v>
-      </c>
-      <c r="F47" s="7">
-        <v>651.22103335631869</v>
-      </c>
-      <c r="G47" s="7">
-        <v>1887.5234638687048</v>
-      </c>
-      <c r="H47" s="7">
-        <v>3200.1408592275343</v>
-      </c>
-      <c r="I47" s="7">
-        <v>5087.6643230962391</v>
+      <c r="D47" s="5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E47" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="F47" s="6">
+        <v>634.28515583258286</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1857.2234418982821</v>
+      </c>
+      <c r="H47" s="6">
+        <v>2705.9791180483567</v>
+      </c>
+      <c r="I47" s="6">
+        <v>4563.2025599466388</v>
       </c>
     </row>
     <row r="48">
@@ -1967,28 +1964,28 @@
         <v>9</v>
       </c>
       <c r="B48" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="6">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="E48" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="F48" s="7">
-        <v>641.64289602704844</v>
-      </c>
-      <c r="G48" s="7">
-        <v>1847.3105958198091</v>
-      </c>
-      <c r="H48" s="7">
-        <v>3327.228888269291</v>
-      </c>
-      <c r="I48" s="7">
-        <v>5174.5394840891004</v>
+      <c r="D48" s="5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E48" s="5">
+        <v>12.199999999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>628.36348909936328</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1869.6389060907284</v>
+      </c>
+      <c r="H48" s="6">
+        <v>3280.8814963630684</v>
+      </c>
+      <c r="I48" s="6">
+        <v>5150.520402453797</v>
       </c>
     </row>
     <row r="49">
@@ -1996,943 +1993,1059 @@
         <v>9</v>
       </c>
       <c r="B49" s="4">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E49" s="5">
+        <v>12.199999999999999</v>
+      </c>
+      <c r="F49" s="6">
+        <v>632.79428389885004</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1882.8223365187093</v>
+      </c>
+      <c r="H49" s="6">
+        <v>3304.0160560948152</v>
+      </c>
+      <c r="I49" s="6">
+        <v>5186.8383926135248</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4">
+        <v>9</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5">
+        <v>37.100000000000001</v>
+      </c>
+      <c r="E50" s="4">
+        <v>12.800000000000001</v>
+      </c>
+      <c r="F50" s="6">
+        <v>638.383708950141</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1850.3152814101743</v>
+      </c>
+      <c r="H50" s="6">
+        <v>3137.0574447628023</v>
+      </c>
+      <c r="I50" s="6">
+        <v>4987.3727261729764</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5">
+        <v>37.100000000000001</v>
+      </c>
+      <c r="E51" s="4">
+        <v>12.800000000000001</v>
+      </c>
+      <c r="F51" s="6">
+        <v>651.22103335631869</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1887.5234638687048</v>
+      </c>
+      <c r="H51" s="6">
+        <v>3200.1408592275343</v>
+      </c>
+      <c r="I51" s="6">
+        <v>5087.6643230962391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4">
+        <v>9</v>
+      </c>
+      <c r="B52" s="4">
         <v>4</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5">
         <v>35.700000000000003</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E52" s="4">
         <v>12.4</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F52" s="6">
+        <v>641.64289602704844</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1847.3105958198091</v>
+      </c>
+      <c r="H52" s="6">
+        <v>3327.228888269291</v>
+      </c>
+      <c r="I52" s="6">
+        <v>5174.5394840891004</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4">
+        <v>9</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E53" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="F53" s="6">
         <v>641.78776242086735</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G53" s="6">
         <v>1847.7276708407228</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H53" s="6">
         <v>3327.9800906178843</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I53" s="6">
         <v>5175.7077614586069</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="8">
-        <v>10</v>
-      </c>
-      <c r="B50" s="4">
+    <row r="54">
+      <c r="A54" s="7">
+        <v>10</v>
+      </c>
+      <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="9">
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8">
         <v>39.5</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E54" s="8">
         <v>14.199999999999999</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F54" s="9">
         <v>726.71329040824446</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G54" s="9">
         <v>2021.4911951496942</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H54" s="9">
         <v>3096.2080330773797</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I54" s="9">
         <v>5117.6992282270739</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="8">
-        <v>10</v>
-      </c>
-      <c r="B51" s="4">
+    <row r="55">
+      <c r="A55" s="7">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8">
         <v>39.5</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E55" s="8">
         <v>14.199999999999999</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F55" s="9">
         <v>744.71563100107153</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G55" s="9">
         <v>2071.5681284888965</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H55" s="9">
         <v>3172.9081461665378</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I55" s="9">
         <v>5244.4762746554343</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="8">
-        <v>10</v>
-      </c>
-      <c r="B52" s="4">
+    <row r="56">
+      <c r="A56" s="7">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8">
         <v>36.399999999999999</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E56" s="8">
         <v>13.199999999999999</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F56" s="9">
         <v>697.95637098142743</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G56" s="9">
         <v>1924.6675684639363</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H56" s="9">
         <v>3362.880696546878</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I56" s="9">
         <v>5287.5482650108142</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="8">
-        <v>10</v>
-      </c>
-      <c r="B53" s="4">
+    <row r="57">
+      <c r="A57" s="7">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="9">
+      <c r="C57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="8">
         <v>36.399999999999999</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E57" s="8">
         <v>13.199999999999999</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F57" s="9">
         <v>715.24404263442045</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G57" s="9">
         <v>1972.3396327191592</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H57" s="9">
         <v>3446.1758417840256</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I57" s="9">
         <v>5418.515474503185</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="8">
-        <v>10</v>
-      </c>
-      <c r="B54" s="4">
+    <row r="58">
+      <c r="A58" s="7">
+        <v>10</v>
+      </c>
+      <c r="B58" s="4">
         <v>3</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8">
         <v>43</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E58" s="8">
         <v>14.300000000000001</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F58" s="9">
         <v>718.97225679925566</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G58" s="9">
         <v>2161.9445484173425</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H58" s="9">
         <v>2865.8334711578723</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I58" s="9">
         <v>5027.7780195752148</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="8">
-        <v>10</v>
-      </c>
-      <c r="B55" s="4">
+    <row r="59">
+      <c r="A59" s="7">
+        <v>10</v>
+      </c>
+      <c r="B59" s="4">
         <v>3</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="C59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8">
         <v>43</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E59" s="8">
         <v>14.300000000000001</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F59" s="9">
         <v>711.67008071963721</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G59" s="9">
         <v>2139.9869560100979</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H59" s="9">
         <v>2836.7268951761762</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I59" s="9">
         <v>4976.713851186274</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="8">
-        <v>10</v>
-      </c>
-      <c r="B56" s="4">
+    <row r="60">
+      <c r="A60" s="7">
+        <v>10</v>
+      </c>
+      <c r="B60" s="4">
         <v>4</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="8">
         <v>41.5</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E60" s="8">
         <v>13.9</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F60" s="9">
         <v>698.12305238209331</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G60" s="9">
         <v>2084.3242211407819</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H60" s="9">
         <v>2938.1437816080902</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I60" s="9">
         <v>5022.4680027488721</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="8">
-        <v>10</v>
-      </c>
-      <c r="B57" s="4">
+    <row r="61">
+      <c r="A61" s="7">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4">
         <v>4</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="C61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="8">
         <v>41.5</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E61" s="8">
         <v>13.9</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F61" s="9">
         <v>706.9231586072965</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G61" s="9">
         <v>2110.5979195829354</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H61" s="9">
         <v>2975.1801998940177</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I61" s="9">
         <v>5085.7781194769532</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="8">
+    <row r="62">
+      <c r="A62" s="7">
         <v>11</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8">
         <v>37.899999999999999</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E62" s="8">
         <v>14</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F62" s="9">
         <v>819.76962558054061</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G62" s="9">
         <v>2219.233486393035</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H62" s="9">
         <v>3636.2638391822552</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I62" s="9">
         <v>5855.4973255752902</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="8">
+    <row r="63">
+      <c r="A63" s="7">
         <v>11</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B63" s="4">
         <v>1</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8">
+      <c r="C63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="7">
         <v>11</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B64" s="4">
         <v>2</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="8">
         <v>42.600000000000001</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E64" s="8">
         <v>14.5</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F64" s="9">
         <v>814.76789647103442</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G64" s="9">
         <v>2393.7318889424873</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H64" s="9">
         <v>3225.3570522370605</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I64" s="9">
         <v>5619.0889411795479</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="8">
+    <row r="65">
+      <c r="A65" s="7">
         <v>11</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B65" s="4">
         <v>2</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="9">
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="8">
         <v>42.600000000000001</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E65" s="8">
         <v>14.550000000000001</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F65" s="9">
         <v>832.0593142867599</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G65" s="9">
         <v>2436.132425334431</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H65" s="9">
         <v>3282.4882914130594</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I65" s="9">
         <v>5718.6207167474904</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="8">
+    <row r="66">
+      <c r="A66" s="7">
         <v>11</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B66" s="4">
         <v>3</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="9">
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="8">
         <v>42.200000000000003</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E66" s="8">
         <v>14.5</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F66" s="9">
         <v>817.4949776274899</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G66" s="9">
         <v>2379.1922797158672</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H66" s="9">
         <v>3258.7041177150973</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I66" s="9">
         <v>5637.8963974309645</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="8">
+    <row r="67">
+      <c r="A67" s="7">
         <v>11</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B67" s="4">
         <v>3</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="9">
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="8">
         <v>42.200000000000003</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E67" s="8">
         <v>14.5</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F67" s="9">
         <v>824.7713888215244</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G67" s="9">
         <v>2400.3691453978163</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H67" s="9">
         <v>3287.7093981989037</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I67" s="9">
         <v>5688.07854359672</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="8">
+    <row r="68">
+      <c r="A68" s="7">
         <v>11</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B68" s="4">
         <v>4</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="8">
         <v>42.799999999999997</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E68" s="8">
         <v>14.4</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F68" s="9">
         <v>817.6441518308925</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G68" s="9">
         <v>2430.2201179418189</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H68" s="9">
         <v>3247.8642697727119</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I68" s="9">
         <v>5678.0843877145307</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="8">
+    <row r="69">
+      <c r="A69" s="7">
         <v>11</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B69" s="4">
         <v>4</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="9">
+      <c r="C69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8">
         <v>42.799999999999997</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E69" s="8">
         <v>14.4</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F69" s="9">
         <v>822.72705346715532</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G69" s="9">
         <v>2445.3276311384893</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H69" s="9">
         <v>3268.0546846056445</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I69" s="9">
         <v>5713.3823157441338</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="8">
+    <row r="70">
+      <c r="A70" s="7">
         <v>12</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B70" s="4">
         <v>1</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="8">
         <v>38.899999999999999</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E70" s="8">
         <v>14.199999999999999</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F70" s="9">
         <v>925.28964729543384</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G70" s="9">
         <v>2534.7723436473507</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H70" s="9">
         <v>3981.3519330810568</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I70" s="9">
         <v>6516.1242767284075</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="8">
+    <row r="71">
+      <c r="A71" s="7">
         <v>12</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B71" s="4">
         <v>1</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="9">
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8">
         <v>38.899999999999999</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E71" s="8">
         <v>14.199999999999999</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F71" s="9">
         <v>939.11514010532937</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G71" s="9">
         <v>2572.6464049364308</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H71" s="9">
         <v>4040.8404972137764</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I71" s="9">
         <v>6613.4869021502072</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="8">
+    <row r="72">
+      <c r="A72" s="7">
         <v>12</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B72" s="4">
         <v>2</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="8">
         <v>39.899999999999999</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E72" s="8">
         <v>13.6</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F72" s="9">
         <v>957.27077378839283</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G72" s="9">
         <v>2808.4635201585934</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H72" s="9">
         <v>4230.2921694619417</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I72" s="9">
         <v>7038.7556896205351</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="8">
+    <row r="73">
+      <c r="A73" s="7">
         <v>12</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B73" s="4">
         <v>2</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="9">
+      <c r="C73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="8">
         <v>39.899999999999999</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E73" s="8">
         <v>13.6</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F73" s="9">
         <v>959.12573681333015</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G73" s="9">
         <v>2813.9056543273432</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H73" s="9">
         <v>4238.4894693000842</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I73" s="9">
         <v>7052.395123627427</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="8">
+    <row r="74">
+      <c r="A74" s="7">
         <v>12</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B74" s="4">
         <v>3</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="8">
         <v>40</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E74" s="8">
         <v>13.800000000000001</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F74" s="9">
         <v>928.21942881134851</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G74" s="9">
         <v>2690.491098003909</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H74" s="9">
         <v>4035.7366470058628</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I74" s="9">
         <v>6726.2277450097718</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="8">
+    <row r="75">
+      <c r="A75" s="7">
         <v>12</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B75" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="9">
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8">
         <v>40</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E75" s="8">
         <v>13.800000000000001</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F75" s="9">
         <v>968.45085343042535</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G75" s="9">
         <v>2807.1039229867401</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H75" s="9">
         <v>4210.6558844801093</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I75" s="9">
         <v>7017.7598074668495</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="8">
+    <row r="76">
+      <c r="A76" s="7">
         <v>12</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B76" s="4">
         <v>4</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="9">
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="8">
         <v>38.399999999999999</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E76" s="8">
         <v>13</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F76" s="9">
         <v>911.90932975062969</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G76" s="9">
         <v>2693.6398663403215</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H76" s="9">
         <v>4321.0472855875987</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I76" s="9">
         <v>7014.6871519279202</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="8">
+    <row r="77">
+      <c r="A77" s="7">
         <v>12</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B77" s="4">
         <v>4</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="9">
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="8">
         <v>38.399999999999999</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E77" s="8">
         <v>13</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F77" s="9">
         <v>905.97076156009928</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G77" s="9">
         <v>2676.0982495313701</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H77" s="9">
         <v>4292.9076086232399</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I77" s="9">
         <v>6969.00585815461</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="8">
+    <row r="78">
+      <c r="A78" s="7">
         <v>13</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B78" s="4">
         <v>1</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="9">
+      <c r="C78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="8">
         <v>41.200000000000003</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E78" s="8">
         <v>14</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F78" s="9">
         <v>882.7853356175134</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G78" s="9">
         <v>2597.9111305315396</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H78" s="9">
         <v>3707.6984095935563</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I78" s="9">
         <v>6305.6095401250959</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="8">
+    <row r="79">
+      <c r="A79" s="7">
         <v>13</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="9">
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="8">
         <v>41.200000000000003</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E79" s="8">
         <v>14</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F79" s="9">
         <v>882.07103160896315</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G79" s="9">
         <v>2595.8090358778063</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H79" s="9">
         <v>3704.6983327576454</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I79" s="9">
         <v>6300.5073686354517</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="8">
+    <row r="80">
+      <c r="A80" s="7">
         <v>13</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B80" s="4">
         <v>2</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="8">
         <v>40.100000000000001</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E80" s="8">
         <v>13.4</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F80" s="9">
         <v>907.4723241825352</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G80" s="9">
         <v>2715.6447910238553</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H80" s="9">
         <v>4056.5367327264071</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I80" s="9">
         <v>6772.1815237502624</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="8">
+    <row r="81">
+      <c r="A81" s="7">
         <v>13</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B81" s="4">
         <v>2</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="9">
+      <c r="C81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="8">
         <v>40.100000000000001</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E81" s="8">
         <v>13.4</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F81" s="9">
         <v>898.17510554936018</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G81" s="9">
         <v>2687.8225173529358</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H81" s="9">
         <v>4014.9767777915426</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I81" s="9">
         <v>6702.7992951444785</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="8">
+    <row r="82">
+      <c r="A82" s="7">
         <v>13</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B82" s="4">
         <v>3</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="8">
         <v>41.100000000000001</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E82" s="8">
         <v>13.699999999999999</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F82" s="9">
         <v>901.91937187116503</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G82" s="9">
         <v>2705.7581156134952</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H82" s="9">
         <v>3877.5949637380741</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I82" s="9">
         <v>6583.3530793515692</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="8">
+    <row r="83">
+      <c r="A83" s="7">
         <v>13</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B83" s="4">
         <v>3</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="9">
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="8">
         <v>41.100000000000001</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E83" s="8">
         <v>13.699999999999999</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F83" s="9">
         <v>922.58356519638414</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G83" s="9">
         <v>2767.7506955891531</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H83" s="9">
         <v>3966.435911683725</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I83" s="9">
         <v>6734.1866072728781</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="8">
+    <row r="84">
+      <c r="A84" s="7">
         <v>13</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B84" s="4">
         <v>4</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="8">
         <v>40.299999999999997</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E84" s="8">
         <v>13.6</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F84" s="9">
         <v>906.61440961185838</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G84" s="9">
         <v>2686.5118167174919</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H84" s="9">
         <v>3979.7706068991142</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I84" s="9">
         <v>6666.2824236166061</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="8">
+    <row r="85">
+      <c r="A85" s="7">
         <v>13</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B85" s="4">
         <v>4</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="9">
+      <c r="C85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="8">
         <v>40.299999999999997</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E85" s="8">
         <v>13.6</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F85" s="9">
         <v>897.18560913666204</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G85" s="9">
         <v>2658.5720623681968</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H85" s="9">
         <v>3938.3809459896124</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I85" s="9">
         <v>6596.9530083578093</v>
       </c>
     </row>
